--- a/sheets/base.xlsx
+++ b/sheets/base.xlsx
@@ -32,7 +32,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -47,6 +47,11 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -71,13 +76,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -206,28 +211,28 @@
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="18"/>
+        <color indexed="19"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="18"/>
+        <color indexed="19"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -248,7 +253,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -325,7 +330,7 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -366,6 +371,7 @@
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffd5fdc1"/>
       <rgbColor rgb="ffa5fb7a"/>
+      <rgbColor rgb="ffed220b"/>
       <rgbColor rgb="ff88f94e"/>
       <rgbColor rgb="ffffdad7"/>
       <rgbColor rgb="fffe634d"/>
@@ -1488,7 +1494,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" ht="36.65" customHeight="1">
       <c r="A5" s="11">
         <v>300</v>
       </c>
